--- a/biology/Médecine/Je_suis_(film)/Je_suis_(film).xlsx
+++ b/biology/Médecine/Je_suis_(film)/Je_suis_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Je suis est un documentaire français réalisé par Emmanuel Finkiel, sorti au cinéma en France le 11 avril 2012. Ce documentaire est inspiré d'une fiction, En marge des jours, également réalisée par Emmanuel Finkiel, en 2007. Il est produit par 13 Production et distribué par Les Films du poisson.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce documentaire suit trois victimes d'accidents vasculaires cérébraux dans la lutte qu'ils mènent au jour le jour, avec leurs proches et le personnel du centre de rééducation qui les accueille, pour se reconstruire.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Je suis
 Réalisation : Emmanuel Finkiel
